--- a/to_栗林さん/0705_宿題.xlsx
+++ b/to_栗林さん/0705_宿題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8227916F-CB7C-9048-B4CF-562EA818D99F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{60FCEC9E-32DA-4C40-90AB-2CF7586DD5C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16520" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -1074,7 +1074,163 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>また、</t>
+      <t>違うなら、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以下の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示します。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⑤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
     </r>
     <r>
       <rPr>
@@ -1092,7 +1248,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>以上なら</t>
+      <t>未満であるなら</t>
     </r>
     <r>
       <rPr>
@@ -1118,6 +1274,24 @@
         <color theme="1"/>
         <rFont val="Menlo Regular"/>
       </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
       <t>200</t>
     </r>
     <r>
@@ -1128,15 +1302,15 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>以上の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num2 = </t>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num3 = </t>
     </r>
     <r>
       <rPr>
@@ -1154,7 +1328,7 @@
         <color theme="1"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>num2</t>
+      <t>num3</t>
     </r>
     <r>
       <rPr>
@@ -1184,43 +1358,17 @@
       </rPr>
       <t>を表示します。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>(100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上であるという条件を通ることとする。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>違うなら、</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>それでもないなら、</t>
     </r>
     <r>
       <rPr>
@@ -1246,25 +1394,25 @@
         <color theme="1"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以下の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num2 = </t>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num3 = </t>
     </r>
     <r>
       <rPr>
@@ -1282,1471 +1430,7 @@
         <color theme="1"/>
         <rFont val="Menlo Regular"/>
       </rPr>
-      <t>num2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⑤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
       <t>num3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>がが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満であるなら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>また、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満なら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>(100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満であるならという条件を通ることとする。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>それでもないなら、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⑥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満であるなら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示し、</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その場合、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で割り切れるなら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の倍数です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示します。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>また、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満であるなら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示し、</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その場合、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で割り切れるなら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の倍数です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>そうでないなら、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の倍数ではありません。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。を表示します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>(100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満であるならという条件を通ることとする。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>それでもないなら、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満の数値です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
     </r>
     <r>
       <rPr>
@@ -2965,7 +1649,7 @@
   </si>
   <si>
     <t>。</t>
-    <rPh sb="0" eb="23">
+    <rPh sb="0" eb="1">
       <t>maru</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3578,7 +2262,7 @@
       </rPr>
       <t>A)  {</t>
     </r>
-    <rPh sb="0" eb="15">
+    <rPh sb="0" eb="13">
       <t>ジョウケn</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3766,12 +2450,1149 @@
       <t>&gt;</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で割り切れるなら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の倍数です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示します。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また、「10」以上200未満であるならという条件がfalseと判断され、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満なら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示します。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また、「100以上である」という条件がtrueであり、変数num2が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上なら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示します。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>また、「100以上200未満であるなら」という条件がfalseであり、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満であるなら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示し、</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・⑥について</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⑥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満であるなら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示し、</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で割り切れるなら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の倍数です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そうでないなら、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は100以上200未満で5の倍数ではありません。num4 = 変数num4の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。を表示します。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>それでもないなら、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示します。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥は以下の様な処理の流れとなります。</t>
+    <rPh sb="0" eb="2">
+      <t>イk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3876,6 +3697,13 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3987,7 +3815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4063,6 +3891,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4108,8 +3939,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1003300" y="22098000"/>
-          <a:ext cx="10058400" cy="5700817"/>
+          <a:off x="1006714" y="22366475"/>
+          <a:ext cx="10085029" cy="5746701"/>
           <a:chOff x="1079500" y="21678900"/>
           <a:chExt cx="10058400" cy="5700817"/>
         </a:xfrm>
@@ -4360,6 +4191,61 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81934</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>27311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351405</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>122902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1056" name="図 1055">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571FDB89-953B-9547-938F-16A02956F9DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1037848" y="29332902"/>
+          <a:ext cx="13133342" cy="6063226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4662,9 +4548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E95EB9-F0B2-2543-8412-5BC93901FB53}">
-  <dimension ref="B2:J94"/>
+  <dimension ref="B2:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -4675,17 +4563,17 @@
   <sheetData>
     <row r="2" spans="2:2" ht="38">
       <c r="B2" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="24">
       <c r="B4" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="24">
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="20">
@@ -4725,7 +4613,7 @@
     </row>
     <row r="23" spans="2:2" ht="24">
       <c r="B23" s="22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="20">
@@ -4750,17 +4638,17 @@
     </row>
     <row r="33" spans="2:2" ht="20">
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="20">
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="20">
@@ -4769,73 +4657,73 @@
       </c>
     </row>
     <row r="38" spans="2:2" ht="20">
-      <c r="B38" s="1" t="s">
-        <v>15</v>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="20">
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="20">
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="20">
-      <c r="B43" s="1" t="s">
-        <v>18</v>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="20">
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="20">
-      <c r="B47" s="1" t="s">
-        <v>20</v>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="20">
-      <c r="B48" s="1" t="s">
-        <v>21</v>
+      <c r="B48" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="20">
-      <c r="B49" s="1" t="s">
-        <v>22</v>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="20">
-      <c r="B50" s="1" t="s">
-        <v>23</v>
+      <c r="B50" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="20">
-      <c r="B51" s="1" t="s">
-        <v>24</v>
+      <c r="B51" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="20">
-      <c r="B52" s="1" t="s">
-        <v>25</v>
+      <c r="B52" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="27">
       <c r="B56" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="20">
       <c r="B58" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="17" thickBot="1"/>
@@ -4852,7 +4740,7 @@
     </row>
     <row r="61" spans="2:10" ht="20">
       <c r="B61" s="21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -4865,7 +4753,7 @@
     </row>
     <row r="62" spans="2:10" ht="20">
       <c r="B62" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -4881,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -4904,7 +4792,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4928,7 +4816,7 @@
     </row>
     <row r="67" spans="2:10" ht="20">
       <c r="B67" s="18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -4941,7 +4829,7 @@
     </row>
     <row r="68" spans="2:10" ht="20">
       <c r="B68" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -4967,7 +4855,7 @@
     </row>
     <row r="70" spans="2:10" ht="20">
       <c r="B70" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -5004,7 +4892,7 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5028,7 +4916,7 @@
     </row>
     <row r="75" spans="2:10" ht="20">
       <c r="B75" s="18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5041,7 +4929,7 @@
     </row>
     <row r="76" spans="2:10" ht="20">
       <c r="B76" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5067,7 +4955,7 @@
     </row>
     <row r="78" spans="2:10" ht="20">
       <c r="B78" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -5080,7 +4968,7 @@
     </row>
     <row r="79" spans="2:10" ht="20">
       <c r="B79" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -5119,7 +5007,7 @@
     </row>
     <row r="82" spans="2:10" ht="20">
       <c r="B82" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -5156,7 +5044,7 @@
     </row>
     <row r="85" spans="2:10" ht="20">
       <c r="B85" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5169,7 +5057,7 @@
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5196,17 +5084,17 @@
     </row>
     <row r="89" spans="2:10" ht="24" customHeight="1">
       <c r="B89" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="19" customHeight="1">
       <c r="B90" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -5217,8 +5105,21 @@
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="14" t="s">
-        <v>47</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" ht="18">
+      <c r="C146" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/to_栗林さん/0705_宿題.xlsx
+++ b/to_栗林さん/0705_宿題.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{60FCEC9E-32DA-4C40-90AB-2CF7586DD5C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228808BC-FBB8-ED42-9186-64C63F97E7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16520" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="変数_echo_if" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -3272,220 +3271,6 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>その場合、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で割り切れるなら</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>未満で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の倍数です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t xml:space="preserve">num4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>変数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>num4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を表示し</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>そうでないなら、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>数値は100以上200未満で5の倍数ではありません。num4 = 変数num4の数値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Menlo Regular"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>。を表示します。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>それでもないなら、</t>
     </r>
     <r>
@@ -3587,12 +3372,993 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その場合、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で割り切れるなら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の倍数です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">num4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そうでないなら、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は50以上100未満で5の倍数ではありません。num4 = 変数num4の数値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。を表示します。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;⑥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>解答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>カイト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$num4 = 139;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    echo("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4 = $num4\n");</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        echo("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の倍数です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4 = $num4\n");</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    echo("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4 = $num4\n");</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    if($num4 % 5 == 0) {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         echo("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の倍数です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4 = $num4\n");</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    else {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        echo("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の倍数ではありません。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4 = $num4\n");</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if ($num4 % 2 == 0) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>しかし、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>文で使う</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>の位置には気をつける必要があります。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ブn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>if ($num4 &gt;= 100 &amp;&amp; $num4 &lt; 200) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>else if($num4 &gt;= 50 &amp;&amp; $num4 &lt; 100) {</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>else {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    echo("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数値は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tsukushi A Round Gothic Bold"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未満の数値です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>num4 = $num4\n");</t>
+    </r>
+  </si>
+  <si>
+    <t>?&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>9行目から始まり、13行目で終わる「{ }」を5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>行目から始まり、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>行目で終わる「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>{ }」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>の中で囲むようにしましょう。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まず、条件が複数ありますのでif else-if elseを使用します。</t>
+    <rPh sb="0" eb="1">
+      <t>ジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>そうすることで、一つ目の条件式が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>true (○)もしくはfalse(×)の状態でありながら、もう一つの条件式を確認することができます。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参考: </t>
+    <rPh sb="0" eb="2">
+      <t>サンコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>また、if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>文の中に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>文を何回でも書くことができます。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ナンカ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ブn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>例えば、($num4 % 2 == 0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>という条件は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>($num4 &gt;= 100 &amp;&amp; $num4 &lt; 200)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>true(○)である時に通らないといけませんので</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>、</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>また、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>文の中に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>文を書きずぎると階層が深くなって分かりにくくなりますので注意してください。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カキsg</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://flytech.work/blog/7735/</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3706,8 +4472,35 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3720,8 +4513,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3809,13 +4608,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3894,8 +4776,45 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4548,10 +5467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E95EB9-F0B2-2543-8412-5BC93901FB53}">
-  <dimension ref="B2:J146"/>
+  <dimension ref="A2:J215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4698,17 +5617,17 @@
     </row>
     <row r="50" spans="2:10" ht="20">
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="20">
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="20">
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:10">
@@ -5115,15 +6034,634 @@
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="18">
       <c r="C146" s="25"/>
     </row>
+    <row r="162" spans="1:9" ht="21">
+      <c r="B162" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28"/>
+      <c r="I164" s="29"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>2</v>
+      </c>
+      <c r="B165" s="30"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
+      <c r="I165" s="32"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1">
+        <v>3</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
+      <c r="I166" s="32"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>4</v>
+      </c>
+      <c r="B167" s="30"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="32"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1">
+        <v>5</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31"/>
+      <c r="H168" s="31"/>
+      <c r="I168" s="32"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1">
+        <v>6</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
+      <c r="H169" s="31"/>
+      <c r="I169" s="32"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1">
+        <v>7</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31"/>
+      <c r="H170" s="31"/>
+      <c r="I170" s="32"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1">
+        <v>8</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
+      <c r="H171" s="31"/>
+      <c r="I171" s="32"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1">
+        <v>9</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="31"/>
+      <c r="I172" s="32"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1">
+        <v>10</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
+      <c r="H173" s="31"/>
+      <c r="I173" s="32"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1">
+        <v>11</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="31"/>
+      <c r="I174" s="32"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1">
+        <v>12</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="31"/>
+      <c r="H175" s="31"/>
+      <c r="I175" s="32"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1">
+        <v>13</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31"/>
+      <c r="H176" s="31"/>
+      <c r="I176" s="32"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1">
+        <v>14</v>
+      </c>
+      <c r="B177" s="30"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
+      <c r="H177" s="31"/>
+      <c r="I177" s="32"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1">
+        <v>15</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="31"/>
+      <c r="I178" s="32"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1">
+        <v>16</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="31"/>
+      <c r="I179" s="32"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1">
+        <v>17</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="31"/>
+      <c r="I180" s="32"/>
+    </row>
+    <row r="181" spans="1:9" ht="18">
+      <c r="A181" s="1">
+        <v>18</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
+      <c r="I181" s="32"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1">
+        <v>19</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31"/>
+      <c r="H182" s="31"/>
+      <c r="I182" s="32"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1">
+        <v>20</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="31"/>
+      <c r="I183" s="32"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1">
+        <v>21</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
+      <c r="H184" s="31"/>
+      <c r="I184" s="32"/>
+    </row>
+    <row r="185" spans="1:9" ht="18">
+      <c r="A185" s="1">
+        <v>22</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="31"/>
+      <c r="I185" s="32"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1">
+        <v>23</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
+      <c r="I186" s="32"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1">
+        <v>24</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
+      <c r="I187" s="32"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>25</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
+      <c r="I188" s="32"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>26</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31"/>
+      <c r="H189" s="31"/>
+      <c r="I189" s="32"/>
+    </row>
+    <row r="190" spans="1:9" ht="18">
+      <c r="A190" s="1">
+        <v>27</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="31"/>
+      <c r="I190" s="32"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>28</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="31"/>
+      <c r="I191" s="32"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1">
+        <v>29</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="31"/>
+      <c r="H192" s="31"/>
+      <c r="I192" s="32"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1">
+        <v>30</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
+      <c r="I193" s="32"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1">
+        <v>31</v>
+      </c>
+      <c r="B194" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="31"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="31"/>
+      <c r="H194" s="31"/>
+      <c r="I194" s="32"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1">
+        <v>32</v>
+      </c>
+      <c r="B195" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="31"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="31"/>
+      <c r="I195" s="32"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1">
+        <v>33</v>
+      </c>
+      <c r="B196" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="31"/>
+      <c r="I196" s="32"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1">
+        <v>34</v>
+      </c>
+      <c r="B197" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="31"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31"/>
+      <c r="H197" s="31"/>
+      <c r="I197" s="32"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1">
+        <v>35</v>
+      </c>
+      <c r="B198" s="30"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="31"/>
+      <c r="H198" s="31"/>
+      <c r="I198" s="32"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1">
+        <v>36</v>
+      </c>
+      <c r="B199" s="30"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31"/>
+      <c r="H199" s="31"/>
+      <c r="I199" s="32"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1">
+        <v>37</v>
+      </c>
+      <c r="B200" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C200" s="31"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="31"/>
+      <c r="F200" s="31"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="31"/>
+      <c r="I200" s="32"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="B201" s="30"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
+      <c r="H201" s="31"/>
+      <c r="I201" s="32"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="B202" s="33"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="34"/>
+      <c r="F202" s="34"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="34"/>
+      <c r="I202" s="35"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="B206" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="B207" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="B208" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="20">
+      <c r="B214" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C214" s="37"/>
+    </row>
+    <row r="215" spans="2:3" ht="20">
+      <c r="B215" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B215" r:id="rId1" xr:uid="{A0EE1555-769A-504C-946E-5C06882EF943}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/to_栗林さん/0705_宿題.xlsx
+++ b/to_栗林さん/0705_宿題.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/to_栗林さん/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228808BC-FBB8-ED42-9186-64C63F97E7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{88843C50-CF53-F447-9B02-8EDC7B42E3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16460" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{659D777C-DBDC-4546-8E75-15BA502A2FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="変数_echo_if" sheetId="1" r:id="rId1"/>
+    <sheet name="switch-case　メソッド" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>}</t>
     <phoneticPr fontId="2"/>
@@ -3614,7 +3616,7 @@
       </rPr>
       <t>&gt;</t>
     </r>
-    <rPh sb="34" eb="36">
+    <rPh sb="0" eb="5">
       <t>カイト</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -4240,10 +4242,7 @@
       <t>文を何回でも書くことができます。</t>
     </r>
     <rPh sb="0" eb="2">
-      <t>ナンカ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ブn</t>
+      <t>ナンカブn</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4351,6 +4350,225 @@
   </si>
   <si>
     <t>https://flytech.work/blog/7735/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日数</t>
+  </si>
+  <si>
+    <t>結果ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のような月を入力すると、その月から12月までの総合日数が表示される画面を作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊各月の日数表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊wordpressで固定ページを作成すること。</t>
+    <rPh sb="0" eb="2">
+      <t>デコテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊計算処理をメソッド化すること</t>
+    <rPh sb="0" eb="1">
+      <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、1から12以外の数字を入力するとエラーメッセージを表示するようにしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>スウj</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">変数fruitsの中に以下の値によって条件分岐するコードを作成してください。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンゴの場合、「リンゴです。」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうの場合、「ぶどうです。」</t>
+    <rPh sb="0" eb="2">
+      <t>バア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パイナップルの場合、「パイナップルです。」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イチゴの場合、「イチゴです。」</t>
+    <rPh sb="0" eb="2">
+      <t>バア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それ以外の場合、「その果物名は対象外です。」</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のような1月の日付を入力すると、その日の曜日が表示される画面を作成してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、1から31以外の数字を入力するとエラーメッセージを表示するようにしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>スウj</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>keisan()メソッドは下記の内容であること。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>keisan2()メソッドは下記の内容であること。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「計算します。」という文字を出力する</t>
+    <rPh sb="0" eb="1">
+      <t>X</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＊「■」は計算した値を表示すること。</t>
+    <rPh sb="0" eb="1">
+      <t>ケイッs</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「足し算の結果は■です。」と出力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「引き算の結果は■です。」と出力する。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「かけ算の結果は■です。」と出力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「わり算の結果は■です。」と出力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・引数が「"+"」だった場合</t>
+    <rPh sb="0" eb="1">
+      <t>X</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・引数が「"-"」だった場合</t>
+    <rPh sb="0" eb="1">
+      <t>X</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・引数が「"×"」だった場合</t>
+    <rPh sb="0" eb="1">
+      <t>X</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・引数が「"÷"」だった場合</t>
+    <rPh sb="0" eb="1">
+      <t>X</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 7/19</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>② また、keisan2()というメソッドを作成し、引数を3つ使ってそのメソッドを呼び出すコードを作成してください。</t>
+    <rPh sb="1028" eb="1030">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="1480" eb="1482">
+      <t>サクセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>① keisan()というメソッドを作成し、そのメソッドを呼び出すコードを作成してください。</t>
+    <rPh sb="533" eb="535">
+      <t>サクセ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4358,7 +4576,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4499,6 +4717,49 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4520,7 +4781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4688,6 +4949,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4697,7 +4973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4810,6 +5086,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5170,6 +5482,2247 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56444</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EB0913-E58E-5F4C-A95C-1BEA0617851F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1873956" y="25371779"/>
+          <a:ext cx="15454488" cy="9429043"/>
+          <a:chOff x="1873956" y="25371779"/>
+          <a:chExt cx="15454488" cy="9429043"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A284CA30-B4F5-ED45-AD44-F3F16EA32061}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1873956" y="25381656"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月日の計算チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>ここに月を入力して下さい</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>　　　　　　　　　　　　　月</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE47E28-803A-E942-97BB-02024641EFE6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1969911" y="26600856"/>
+            <a:ext cx="1594556" cy="330200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>１</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F62025-0FAE-874C-9C3D-0465B959BC4E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1969911" y="27070756"/>
+            <a:ext cx="469900" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結果</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6133416-E167-3A4E-9A3C-547DC80CC715}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10738556" y="25371779"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月日の計算チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月から</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月までの月は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>365</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>日です。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="右矢印 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1810B78-F21E-CA47-B471-0578C8A3D16E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8805333" y="26782889"/>
+            <a:ext cx="1566333" cy="931333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD384FFF-BE47-1C46-8EA8-81425407372D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10625667" y="30889222"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月日の計算チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>エラーです。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>から</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>の整数を入力してください。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="右矢印 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF4DB00-EBF5-A347-A6E3-611C476F1840}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2365798">
+            <a:off x="8379147" y="29883471"/>
+            <a:ext cx="2087388" cy="931333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>931333</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>143964</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE636EE-A216-7E40-A976-55410061AE01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1890889" y="12954000"/>
+          <a:ext cx="15525075" cy="8748889"/>
+          <a:chOff x="1890889" y="12954000"/>
+          <a:chExt cx="15525075" cy="8748889"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680D1A03-D921-264F-9AEA-2ACEBF3E488F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1890889" y="12963877"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の曜日チェック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>ここに</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の日にちを入力して下さい</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>                                                        </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>日</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F87D46-BE3D-364C-8AF2-0484F8AEB72D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10755489" y="12954000"/>
+            <a:ext cx="6589888" cy="3911600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の曜日チェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>30</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>日の曜日は木曜日です。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="右矢印 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9536AD2-B411-C343-9380-F1F956276D72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8822266" y="14365109"/>
+            <a:ext cx="1566333" cy="931334"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E66A6F-330E-5C41-BC15-70A29691DA2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2032000" y="14205654"/>
+            <a:ext cx="1594556" cy="330201"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>30</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF0204D-55CC-9048-9D4A-2C85463F829D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2032000" y="14703777"/>
+            <a:ext cx="469900" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>結果</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82DD833-6903-7146-8A87-F676B306BB59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10826076" y="18066084"/>
+            <a:ext cx="6589888" cy="3636805"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>2020</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>月の曜日チェック</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>エラーです。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>から</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>31</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" cap="none" spc="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>の整数を入力してください。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="右矢印 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A981427-7D4D-ED46-8154-D75595D400A8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2365798">
+            <a:off x="8240892" y="17596554"/>
+            <a:ext cx="2087388" cy="931333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -5469,9 +8022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E95EB9-F0B2-2543-8412-5BC93901FB53}">
   <dimension ref="A2:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -6131,7 +8682,7 @@
       <c r="H169" s="31"/>
       <c r="I169" s="32"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="18">
       <c r="A170" s="1">
         <v>7</v>
       </c>
@@ -6191,7 +8742,7 @@
       <c r="H173" s="31"/>
       <c r="I173" s="32"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" ht="18">
       <c r="A174" s="1">
         <v>11</v>
       </c>
@@ -6519,7 +9070,7 @@
       <c r="H195" s="31"/>
       <c r="I195" s="32"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" ht="18">
       <c r="A196" s="1">
         <v>33</v>
       </c>
@@ -6664,4 +9215,474 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BF504-F0D1-5B46-AC03-CFC3B1E7E9EE}">
+  <dimension ref="B2:K115"/>
+  <sheetViews>
+    <sheetView zoomScale="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="38">
+      <c r="B2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="5" spans="2:3" ht="24">
+      <c r="B5" s="41">
+        <v>1</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="24">
+      <c r="B6" s="41"/>
+      <c r="C6" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="24">
+      <c r="B7" s="41"/>
+      <c r="C7" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24">
+      <c r="B8" s="41"/>
+      <c r="C8" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24">
+      <c r="B9" s="41"/>
+      <c r="C9" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24">
+      <c r="B10" s="41"/>
+      <c r="C10" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="24">
+      <c r="B11" s="41"/>
+      <c r="C11" s="49"/>
+    </row>
+    <row r="12" spans="2:3" ht="24">
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="2:3" ht="24">
+      <c r="B13" s="41">
+        <v>2</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24">
+      <c r="B14" s="41"/>
+      <c r="C14" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="24">
+      <c r="B15" s="41"/>
+      <c r="C15" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="24">
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="2:8" ht="24">
+      <c r="B17" s="41"/>
+    </row>
+    <row r="18" spans="2:8" ht="24">
+      <c r="B18" s="41"/>
+      <c r="C18" s="49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24">
+      <c r="B19" s="41"/>
+      <c r="C19" s="49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24">
+      <c r="B20" s="41"/>
+      <c r="C20" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24">
+      <c r="B21" s="41"/>
+      <c r="C21" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24">
+      <c r="B22" s="41"/>
+      <c r="C22" s="49"/>
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="2:8" ht="24">
+      <c r="B23" s="41"/>
+      <c r="C23" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24">
+      <c r="B24" s="41"/>
+      <c r="C24" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24">
+      <c r="B25" s="41"/>
+      <c r="C25" s="49"/>
+    </row>
+    <row r="26" spans="2:8" ht="24">
+      <c r="B26" s="41"/>
+      <c r="C26" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24">
+      <c r="B27" s="41"/>
+      <c r="C27" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24">
+      <c r="B28" s="41"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="2:8" ht="24">
+      <c r="B29" s="41"/>
+      <c r="C29" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="24">
+      <c r="B30" s="41"/>
+      <c r="C30" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="24">
+      <c r="B31" s="41"/>
+    </row>
+    <row r="32" spans="2:8" ht="24">
+      <c r="B32" s="41"/>
+      <c r="C32" s="49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="24">
+      <c r="B33" s="41"/>
+    </row>
+    <row r="34" spans="2:10" ht="34" customHeight="1">
+      <c r="B34" s="41"/>
+    </row>
+    <row r="35" spans="2:10" ht="24">
+      <c r="B35" s="41">
+        <v>3</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="24">
+      <c r="B36" s="41"/>
+      <c r="C36" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="27">
+      <c r="B37" s="41"/>
+      <c r="C37" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="27">
+      <c r="B38" s="41"/>
+      <c r="C38" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="24">
+      <c r="B39" s="41"/>
+    </row>
+    <row r="40" spans="2:10" ht="24">
+      <c r="B40" s="41"/>
+    </row>
+    <row r="41" spans="2:10" ht="24">
+      <c r="B41" s="41"/>
+    </row>
+    <row r="42" spans="2:10" ht="24">
+      <c r="B42" s="41"/>
+    </row>
+    <row r="43" spans="2:10" ht="24">
+      <c r="B43" s="41"/>
+    </row>
+    <row r="44" spans="2:10" ht="24">
+      <c r="B44" s="41"/>
+    </row>
+    <row r="45" spans="2:10" ht="24">
+      <c r="B45" s="41"/>
+      <c r="J45" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="24">
+      <c r="B46" s="41"/>
+    </row>
+    <row r="47" spans="2:10" ht="24">
+      <c r="B47" s="41"/>
+    </row>
+    <row r="48" spans="2:10" ht="24">
+      <c r="B48" s="41"/>
+    </row>
+    <row r="49" spans="2:11" ht="24">
+      <c r="B49" s="41"/>
+    </row>
+    <row r="50" spans="2:11" ht="24">
+      <c r="B50" s="41"/>
+    </row>
+    <row r="51" spans="2:11" ht="24">
+      <c r="B51" s="41"/>
+    </row>
+    <row r="52" spans="2:11" ht="24">
+      <c r="B52" s="41"/>
+    </row>
+    <row r="53" spans="2:11" ht="24">
+      <c r="B53" s="41"/>
+    </row>
+    <row r="54" spans="2:11" ht="24">
+      <c r="B54" s="41"/>
+    </row>
+    <row r="55" spans="2:11" ht="24">
+      <c r="B55" s="41"/>
+    </row>
+    <row r="56" spans="2:11" ht="24">
+      <c r="B56" s="41"/>
+      <c r="K56" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="24">
+      <c r="B57" s="41"/>
+    </row>
+    <row r="58" spans="2:11" ht="24">
+      <c r="B58" s="41"/>
+    </row>
+    <row r="59" spans="2:11" ht="24">
+      <c r="B59" s="41"/>
+    </row>
+    <row r="60" spans="2:11" ht="24">
+      <c r="B60" s="41"/>
+    </row>
+    <row r="61" spans="2:11" ht="24">
+      <c r="B61" s="41"/>
+    </row>
+    <row r="62" spans="2:11" ht="24">
+      <c r="B62" s="41"/>
+    </row>
+    <row r="63" spans="2:11" ht="24">
+      <c r="B63" s="41"/>
+    </row>
+    <row r="64" spans="2:11" ht="24">
+      <c r="B64" s="41"/>
+    </row>
+    <row r="65" spans="2:3" ht="24">
+      <c r="B65" s="41"/>
+    </row>
+    <row r="66" spans="2:3" ht="24">
+      <c r="B66" s="41"/>
+    </row>
+    <row r="67" spans="2:3" ht="24">
+      <c r="B67" s="41"/>
+    </row>
+    <row r="68" spans="2:3" ht="24">
+      <c r="B68" s="41"/>
+    </row>
+    <row r="69" spans="2:3" ht="24">
+      <c r="B69" s="41"/>
+    </row>
+    <row r="70" spans="2:3" ht="24">
+      <c r="B70" s="41"/>
+    </row>
+    <row r="71" spans="2:3" ht="24">
+      <c r="B71" s="41"/>
+    </row>
+    <row r="72" spans="2:3" ht="24">
+      <c r="B72" s="41"/>
+    </row>
+    <row r="73" spans="2:3" ht="24">
+      <c r="B73" s="41"/>
+    </row>
+    <row r="74" spans="2:3" ht="24">
+      <c r="B74" s="41"/>
+    </row>
+    <row r="75" spans="2:3" ht="24">
+      <c r="B75" s="41">
+        <v>4</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="24">
+      <c r="B76" s="41"/>
+      <c r="C76" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="27">
+      <c r="B77" s="40"/>
+      <c r="C77" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="27">
+      <c r="C78" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11">
+      <c r="K99" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" s="45" customFormat="1">
+      <c r="C101" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="46"/>
+    </row>
+    <row r="102" spans="3:11" s="45" customFormat="1">
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+    </row>
+    <row r="103" spans="3:11">
+      <c r="C103" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11">
+      <c r="C104" s="39">
+        <v>1</v>
+      </c>
+      <c r="D104" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11">
+      <c r="C105" s="39">
+        <v>2</v>
+      </c>
+      <c r="D105" s="39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="C106" s="39">
+        <v>3</v>
+      </c>
+      <c r="D106" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="C107" s="39">
+        <v>4</v>
+      </c>
+      <c r="D107" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="C108" s="39">
+        <v>5</v>
+      </c>
+      <c r="D108" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11">
+      <c r="C109" s="39">
+        <v>6</v>
+      </c>
+      <c r="D109" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="C110" s="39">
+        <v>7</v>
+      </c>
+      <c r="D110" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11">
+      <c r="C111" s="39">
+        <v>8</v>
+      </c>
+      <c r="D111" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11">
+      <c r="C112" s="39">
+        <v>9</v>
+      </c>
+      <c r="D112" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" s="39">
+        <v>10</v>
+      </c>
+      <c r="D113" s="39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114" s="39">
+        <v>11</v>
+      </c>
+      <c r="D114" s="39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115" s="39">
+        <v>12</v>
+      </c>
+      <c r="D115" s="39">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>